--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -529,19 +529,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>238810</xdr:rowOff>
+      <xdr:rowOff>279292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>746759</xdr:rowOff>
+      <xdr:rowOff>787240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -560,8 +560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3185160" y="3873550"/>
-          <a:ext cx="502920" cy="507949"/>
+          <a:off x="3352800" y="3914032"/>
+          <a:ext cx="502919" cy="507948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,19 +573,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:colOff>386220</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>117120</xdr:rowOff>
+      <xdr:rowOff>142322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>782460</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -604,8 +604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4661040" y="3751860"/>
-          <a:ext cx="665340" cy="665340"/>
+          <a:off x="4927740" y="3777062"/>
+          <a:ext cx="672960" cy="672960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,19 +622,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>327430</xdr:rowOff>
+      <xdr:rowOff>289370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>594359</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>835379</xdr:rowOff>
+      <xdr:rowOff>797318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -653,8 +653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3825240" y="18104890"/>
-          <a:ext cx="502920" cy="507949"/>
+          <a:off x="3771900" y="18066830"/>
+          <a:ext cx="502919" cy="507948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,19 +666,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1353960</xdr:colOff>
+      <xdr:colOff>1247280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:colOff>1920240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>848220</xdr:rowOff>
+      <xdr:rowOff>787260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -697,8 +697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5034420" y="17960340"/>
-          <a:ext cx="665340" cy="665340"/>
+          <a:off x="4927740" y="17891760"/>
+          <a:ext cx="672960" cy="672960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14202,8 +14202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068" activeTab="2"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130407"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,14 +200,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -217,57 +222,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -286,34 +299,40 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF969696"/>
+      <color indexed="55"/>
       <name val="宋体"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,29 +455,29 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -510,7 +529,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -550,7 +569,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -594,7 +613,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -643,7 +662,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -687,7 +706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -996,22 +1015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,27 +1119,27 @@
         <v>11</v>
       </c>
       <c r="C8" s="25">
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.8" customHeight="1">
+    <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="25">
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1259,7 +1278,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="28.2" customHeight="1">
+    <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>44</v>
@@ -8018,6 +8037,7 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"个人,三年多次,五年多次"</formula1>
@@ -8027,28 +8047,32 @@
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8077,7 +8101,7 @@
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="39" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8319,7 +8343,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" ht="62.4" customHeight="1">
+    <row r="20" spans="1:8" ht="62.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -14192,25 +14216,30 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="30.296875" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14224,7 +14253,7 @@
     <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="44" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14251,7 +14280,7 @@
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>47</v>
@@ -14263,7 +14292,7 @@
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>42349</v>
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>33</v>
@@ -14275,7 +14304,7 @@
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>42350</v>
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -14283,7 +14312,7 @@
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>42351</v>
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -14291,7 +14320,7 @@
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>42352</v>
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -14299,7 +14328,7 @@
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>42353</v>
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -14307,7 +14336,7 @@
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>42354</v>
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -14315,7 +14344,7 @@
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>42355</v>
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -14323,7 +14352,7 @@
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>42356</v>
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -14331,7 +14360,7 @@
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>42357</v>
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -14339,7 +14368,7 @@
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>42358</v>
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -14347,7 +14376,7 @@
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>42359</v>
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14355,7 +14384,7 @@
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>42360</v>
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14363,7 +14392,7 @@
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>42361</v>
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14371,7 +14400,7 @@
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>42362</v>
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -14379,7 +14408,7 @@
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -14488,7 +14517,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="39.6" customHeight="1">
+    <row r="34" spans="1:3" ht="39.5" customHeight="1">
       <c r="A34" s="19" t="str">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
         <v/>
@@ -14496,7 +14525,7 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" customHeight="1">
+    <row r="35" spans="1:3" ht="40.75" customHeight="1">
       <c r="A35" s="20" t="str">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
         <v/>
@@ -14533,7 +14562,7 @@
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
     </row>
-    <row r="40" spans="1:3" ht="73.8" customHeight="1">
+    <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
@@ -19363,8 +19392,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>同上</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -569,7 +563,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -613,7 +607,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -662,7 +656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -706,7 +700,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1019,7 +1013,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1106,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1148,12 +1142,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1193,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1206,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1219,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1229,10 +1219,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1242,10 +1232,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1255,10 +1245,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1268,10 +1258,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1281,10 +1271,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1294,10 +1284,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8043,9 +8033,6 @@
       <formula1>"个人,三年多次,五年多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8349,7 +8336,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -14283,7 +14270,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14566,7 +14553,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -179,22 +179,25 @@
     <t>1959年9月27日</t>
   </si>
   <si>
-    <t>〒160-0023東京都新宿区西新宿1-22-2 新宿サンエ－ビル15階</t>
-  </si>
-  <si>
     <t>03-5325-6288</t>
   </si>
   <si>
+    <t>〒160-0023東京都新宿区西新宿7-5-6 グリーン西新宿ビル4階</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
     <t>会社名:  ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>会社名: ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
 </sst>
 </file>
@@ -484,9 +487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -613,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -662,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -706,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1215,10 +1218,10 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="1"/>
@@ -1228,10 +1231,10 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="1"/>
@@ -1241,10 +1244,10 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1"/>
@@ -1254,10 +1257,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="1"/>
@@ -1267,10 +1270,10 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="1"/>
@@ -1280,11 +1283,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
+      <c r="C23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1293,11 +1296,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>53</v>
+      <c r="C24" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8040,7 +8043,7 @@
   <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"个人,三年多次,五年多次"</formula1>
+      <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8060,7 +8063,7 @@
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -8242,7 +8245,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8255,7 +8258,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8268,7 +8271,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8281,7 +8284,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14231,8 +14234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -14267,13 +14270,13 @@
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14565,7 +14568,7 @@
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="33" t="s">
         <v>55</v>
       </c>
     </row>

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -128,6 +128,12 @@
     <t>同上</t>
   </si>
   <si>
+    <t>http://123.56.136.55/code</t>
+  </si>
+  <si>
+    <t>※编号请查询</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
@@ -173,22 +179,25 @@
     <t>1959年9月27日</t>
   </si>
   <si>
-    <t>〒160-0023東京都新宿区西新宿1-22-2 新宿サンエ－ビル15階</t>
-  </si>
-  <si>
     <t>03-5325-6288</t>
   </si>
   <si>
+    <t>〒160-0023東京都新宿区西新宿7-5-6 グリーン西新宿ビル4階</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
     <t>会社名:  ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
   <si>
     <t>会社名: ジェーティージー華信株式会社
-地址：東京都新宿区西新宿1-22-2新宿サンエ－ビル15F
+地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
+    <phoneticPr fontId="22"/>
   </si>
 </sst>
 </file>
@@ -478,9 +487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -491,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1100,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1142,8 +1151,12 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1183,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1196,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1205,11 +1218,11 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>47</v>
+      <c r="C18" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1218,11 +1231,11 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
-        <v>35</v>
+      <c r="B19" s="28" t="s">
+        <v>37</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>36</v>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1231,11 +1244,11 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
-        <v>37</v>
+      <c r="B20" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>49</v>
+      <c r="C20" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1244,11 +1257,11 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
-        <v>38</v>
+      <c r="B21" s="28" t="s">
+        <v>40</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>39</v>
+      <c r="C21" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1257,11 +1270,11 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29" t="s">
-        <v>40</v>
+      <c r="B22" s="28" t="s">
+        <v>42</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>41</v>
+      <c r="C22" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1270,11 +1283,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
-        <v>42</v>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>50</v>
+      <c r="C23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1283,11 +1296,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30" t="s">
-        <v>43</v>
+      <c r="B24" s="29" t="s">
+        <v>45</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>51</v>
+      <c r="C24" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8030,9 +8043,12 @@
   <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"个人,三年多次,五年多次"</formula1>
+      <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8047,7 +8063,7 @@
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:H20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -8229,7 +8245,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8242,7 +8258,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8255,7 +8271,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8268,7 +8284,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8336,7 +8352,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -14218,8 +14234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -14254,13 +14270,13 @@
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14270,7 +14286,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14552,8 +14568,8 @@
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
-        <v>53</v>
+      <c r="C40" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>同上</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1196,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1209,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8046,9 +8036,6 @@
       <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8352,7 +8339,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -14286,7 +14273,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
@@ -14569,7 +14556,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
@@ -11,9 +11,9 @@
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -128,12 +128,6 @@
     <t>同上</t>
   </si>
   <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
@@ -183,31 +177,81 @@
   </si>
   <si>
     <t>〒160-0023東京都新宿区西新宿7-5-6 グリーン西新宿ビル4階</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>会社名:  ジェーティージー華信株式会社
 地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>会社名: ジェーティージー華信株式会社
 地址：東京都新宿区西新宿7-5-6 グリーン西新宿ビル4F
 担当者：高　鵬
 電話：03-5325-6288</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>访问城市</t>
+    <rPh sb="0" eb="2">
+      <t>faンg weン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>cheンg shi</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>沖縄県,宮城県</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>(沖縄県,青森県,岩手県,宮城県,秋田県,山形県,福島県)</t>
+    <rPh sb="1" eb="4">
+      <t>オキナワケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>アオモリケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>イワテケン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミヤギケン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アキタケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フクシマケン</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>住宿城市</t>
+    <rPh sb="0" eb="2">
+      <t>zhu su</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>cheンg shi</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>沖縄県</t>
+    <phoneticPr fontId="21"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -301,11 +345,6 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="55"/>
-      <name val="宋体"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -336,6 +375,12 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,23 +459,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -458,58 +503,57 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,13 +570,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -572,7 +617,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +754,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1018,19 +1063,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
@@ -1109,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1119,12 +1164,14 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
-      <c r="C8" s="25">
-        <v>43079</v>
+      <c r="C8" s="44" t="s">
+        <v>55</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1132,18 +1179,26 @@
     <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
-      <c r="C9" s="25">
-        <v>43094</v>
+      <c r="C9" s="44" t="s">
+        <v>58</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43079</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1151,11 +1206,11 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
+      <c r="B11" s="21" t="s">
+        <v>12</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>35</v>
+      <c r="C11" s="25">
+        <v>43094</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1196,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1209,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1218,11 +1273,11 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>49</v>
+      <c r="C18" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1231,11 +1286,11 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="28" t="s">
-        <v>37</v>
+      <c r="B19" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>38</v>
+      <c r="C19" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1244,11 +1299,11 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="28" t="s">
-        <v>39</v>
+      <c r="B20" s="27" t="s">
+        <v>37</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>51</v>
+      <c r="C20" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1257,11 +1312,11 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="28" t="s">
-        <v>40</v>
+      <c r="B21" s="27" t="s">
+        <v>38</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>41</v>
+      <c r="C21" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1270,11 +1325,11 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="28" t="s">
-        <v>42</v>
+      <c r="B22" s="27" t="s">
+        <v>40</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>43</v>
+      <c r="C22" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1283,11 +1338,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="30" t="s">
-        <v>44</v>
+      <c r="B23" s="29" t="s">
+        <v>42</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>53</v>
+      <c r="C23" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1296,11 +1351,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="29" t="s">
-        <v>45</v>
+      <c r="B24" s="28" t="s">
+        <v>43</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>52</v>
+      <c r="C24" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8040,18 +8095,15 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8059,14 +8111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -8080,52 +8132,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="39" t="str">
+      <c r="A3" s="38" t="e">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2017年12月10日 〜 2017年12月25日）</v>
+        <v>#VALUE!</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="39" t="str">
+      <c r="A4" s="38" t="str">
         <f>"（旅行参加者"&amp;MAX(A6:A15)&amp;"名、"&amp;"代表者"&amp;B6&amp;"、他"&amp;MAX(A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8245,7 +8297,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8258,7 +8310,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8271,7 +8323,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8284,7 +8336,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8308,55 +8360,55 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="36" t="str">
+      <c r="A17" s="35" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="36" t="str">
+      <c r="A18" s="35" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="36" t="str">
+      <c r="A19" s="35" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="62.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="38" t="s">
-        <v>54</v>
+      <c r="E20" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
@@ -14219,11 +14271,11 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14231,14 +14283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -14247,55 +14299,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
-      <c r="A2" s="44" t="str">
+      <c r="A2" s="43" t="e">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2017年12月10日 〜 2017年12月25日）</v>
+        <v>#VALUE!</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="40" t="str">
         <f>"（旅行参加者"&amp;MAX(査証人名簿!A6:A15)&amp;"名、"&amp;"代表者"&amp;査証人名簿!B6&amp;"、他"&amp;MAX(査証人名簿!A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="16" t="str">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>43079</v>
+        <v>沖縄県,宮城県</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>43080</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>33</v>
@@ -14305,233 +14357,233 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>43081</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>43082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>43083</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>43084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>43085</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>43086</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>43087</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>43088</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>43089</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>43090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>43091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>43092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>43093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>43094</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19" t="str">
+      <c r="A21" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C9,A5+16,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19" t="str">
+      <c r="A22" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C9,A5+17,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19" t="str">
+      <c r="A23" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C9,A5+18,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19" t="str">
+      <c r="A24" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C9,A5+19,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19" t="str">
+      <c r="A25" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C9,A5+20,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19" t="str">
+      <c r="A26" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C9,A5+21,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19" t="str">
+      <c r="A27" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C9,A5+22,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19" t="str">
+      <c r="A28" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+23&lt;=基本信息!C9,A5+23,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19" t="str">
+      <c r="A29" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C9,A5+24,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19" t="str">
+      <c r="A30" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C9,A5+25,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19" t="str">
+      <c r="A31" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C9,A5+26,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19" t="str">
+      <c r="A32" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C9,A5+27,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19" t="str">
+      <c r="A33" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C9,A5+28,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19" t="str">
+      <c r="A34" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20" t="str">
+      <c r="A35" s="20" t="e">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -14542,34 +14594,34 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="43" t="str">
+      <c r="A37" s="42" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="43" t="str">
+      <c r="A38" s="42" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="43" t="str">
+      <c r="A39" s="42" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="33" t="s">
-        <v>55</v>
+      <c r="C40" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -19395,11 +19447,11 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="19560" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -382,6 +382,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,9 +479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -545,6 +553,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,11 +579,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1067,7 +1077,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1166,7 +1176,7 @@
       <c r="B8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1181,7 +1191,7 @@
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="33" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -8102,6 +8112,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8115,7 +8126,7 @@
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -8132,52 +8143,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="38" t="e">
-        <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>#VALUE!</v>
+      <c r="A3" s="39" t="str">
+        <f>"（"&amp;YEAR(基本信息!C10)&amp;"年"&amp;MONTH(基本信息!C10)&amp;"月"&amp;DAY(基本信息!C10)&amp;"日 〜 "&amp;YEAR(基本信息!C11)&amp;"年"&amp;MONTH(基本信息!C11)&amp;"月"&amp;DAY(基本信息!C11)&amp;"日）"</f>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="38" t="str">
+      <c r="A4" s="39" t="str">
         <f>"（旅行参加者"&amp;MAX(A6:A15)&amp;"名、"&amp;"代表者"&amp;B6&amp;"、他"&amp;MAX(A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8360,55 +8371,55 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="35" t="str">
+      <c r="A17" s="36" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="35" t="str">
+      <c r="A18" s="36" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="35" t="str">
+      <c r="A19" s="36" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="62.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
@@ -14287,7 +14298,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14299,27 +14310,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
-      <c r="A2" s="43" t="e">
-        <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>#VALUE!</v>
+      <c r="A2" s="44" t="str">
+        <f>"（"&amp;YEAR(基本信息!C10)&amp;"年"&amp;MONTH(基本信息!C10)&amp;"月"&amp;DAY(基本信息!C10)&amp;"日 〜 "&amp;YEAR(基本信息!C11)&amp;"年"&amp;MONTH(基本信息!C11)&amp;"月"&amp;DAY(基本信息!C11)&amp;"日）"</f>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" s="40" t="str">
+      <c r="A3" s="41" t="str">
         <f>"（旅行参加者"&amp;MAX(査証人名簿!A6:A15)&amp;"名、"&amp;"代表者"&amp;査証人名簿!B6&amp;"、他"&amp;MAX(査証人名簿!A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -14594,28 +14605,28 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="42" t="str">
+      <c r="A37" s="43" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="42" t="str">
+      <c r="A38" s="43" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="42" t="str">
+      <c r="A39" s="43" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40" spans="1:3" ht="73.75" customHeight="1">
       <c r="A40" s="7"/>

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="19560" windowHeight="13540"/>
+    <workbookView xWindow="7160" yWindow="780" windowWidth="19820" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -787,6 +790,34 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="基本信息"/>
+      <sheetName val="査証人名簿"/>
+      <sheetName val="滞在予定表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="C10">
+            <v>43079</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>43094</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -1077,7 +1108,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -8126,7 +8157,7 @@
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14298,7 +14329,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14344,9 +14375,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
-      <c r="A5" s="16" t="str">
-        <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>沖縄県,宮城県</v>
+      <c r="A5" s="16">
+        <f>IF(AND(LEN([1]基本信息!C10),LEN([1]基本信息!C10)),[1]基本信息!C10,"")</f>
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>45</v>
@@ -14356,9 +14387,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A6" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A6" s="16">
+        <f>IF(LEN(A5),IF(A5+1&lt;=[1]基本信息!C11,A5+1,""),"")</f>
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>33</v>
@@ -14368,233 +14399,233 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A7" s="16">
+        <f>IF(LEN(A5),IF(A5+2&lt;=[1]基本信息!C11,A5+2,""),"")</f>
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A8" s="16">
+        <f>IF(LEN(A5),IF(A5+3&lt;=[1]基本信息!C11,A5+3,""),"")</f>
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
-      <c r="A9" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A9" s="16">
+        <f>IF(LEN(A5),IF(A5+4&lt;=[1]基本信息!C11,A5+4,""),"")</f>
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
-      <c r="A10" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A10" s="16">
+        <f>IF(LEN(A5),IF(A5+5&lt;=[1]基本信息!C11,A5+5,""),"")</f>
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A11" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A11" s="16">
+        <f>IF(LEN(A5),IF(A5+6&lt;=[1]基本信息!C11,A5+6,""),"")</f>
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A12" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A12" s="16">
+        <f>IF(LEN(A5),IF(A5+7&lt;=[1]基本信息!C11,A5+7,""),"")</f>
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A13" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A13" s="16">
+        <f>IF(LEN(A5),IF(A5+8&lt;=[1]基本信息!C11,A5+8,""),"")</f>
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
-      <c r="A14" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A14" s="16">
+        <f>IF(LEN(A5),IF(A5+9&lt;=[1]基本信息!C11,A5+9,""),"")</f>
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A15" s="16">
+        <f>IF(LEN(A5),IF(A5+10&lt;=[1]基本信息!C11,A5+10,""),"")</f>
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A16" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A16" s="16">
+        <f>IF(LEN(A5),IF(A5+11&lt;=[1]基本信息!C11,A5+11,""),"")</f>
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A17" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A17" s="16">
+        <f>IF(LEN(A5),IF(A5+12&lt;=[1]基本信息!C11,A5+12,""),"")</f>
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A18" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A18" s="16">
+        <f>IF(LEN(A5),IF(A5+13&lt;=[1]基本信息!C11,A5+13,""),"")</f>
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A19" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A19" s="16">
+        <f>IF(LEN(A5),IF(A5+14&lt;=[1]基本信息!C11,A5+14,""),"")</f>
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A20" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A20" s="16">
+        <f>IF(LEN(A5),IF(A5+15&lt;=[1]基本信息!C11,A5+15,""),"")</f>
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C9,A5+16,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A21" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+16&lt;=[1]基本信息!C11,A5+16,""),"")</f>
+        <v/>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C9,A5+17,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A22" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+17&lt;=[1]基本信息!C11,A5+17,""),"")</f>
+        <v/>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C9,A5+18,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A23" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+18&lt;=[1]基本信息!C11,A5+18,""),"")</f>
+        <v/>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C9,A5+19,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A24" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+19&lt;=[1]基本信息!C11,A5+19,""),"")</f>
+        <v/>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C9,A5+20,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A25" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+20&lt;=[1]基本信息!C11,A5+20,""),"")</f>
+        <v/>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C9,A5+21,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A26" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+21&lt;=[1]基本信息!C11,A5+21,""),"")</f>
+        <v/>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C9,A5+22,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A27" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+22&lt;=[1]基本信息!C11,A5+22,""),"")</f>
+        <v/>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+23&lt;=基本信息!C9,A5+23,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A28" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+23&lt;=[1]基本信息!C11,A5+23,""),"")</f>
+        <v/>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C9,A5+24,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A29" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+24&lt;=[1]基本信息!C11,A5+24,""),"")</f>
+        <v/>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C9,A5+25,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A30" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+25&lt;=[1]基本信息!C11,A5+25,""),"")</f>
+        <v/>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C9,A5+26,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A31" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+26&lt;=[1]基本信息!C11,A5+26,""),"")</f>
+        <v/>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C9,A5+27,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A32" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+27&lt;=[1]基本信息!C11,A5+27,""),"")</f>
+        <v/>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C9,A5+28,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A33" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+28&lt;=[1]基本信息!C11,A5+28,""),"")</f>
+        <v/>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A34" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+29&lt;=[1]基本信息!C11,A5+29,""),"")</f>
+        <v/>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20" t="e">
-        <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A35" s="20" t="str">
+        <f>IF(LEN(A5),IF(A5+30&lt;=[1]基本信息!C11,A5+30,""),"")</f>
+        <v/>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>

--- a/public/individual_jtg.xlsx
+++ b/public/individual_jtg.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="780" windowWidth="19820" windowHeight="14280"/>
+    <workbookView xWindow="7960" yWindow="40" windowWidth="19820" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -253,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -381,14 +378,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -482,10 +479,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
@@ -583,14 +579,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -630,7 +625,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -674,7 +669,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -723,7 +718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -767,7 +762,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -788,34 +783,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="基本信息"/>
-      <sheetName val="査証人名簿"/>
-      <sheetName val="滞在予定表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="C10">
-            <v>43079</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>43094</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,14 +1071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -8143,9 +8110,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8153,14 +8119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -14317,7 +14283,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14325,14 +14291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -14376,7 +14342,7 @@
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
-        <f>IF(AND(LEN([1]基本信息!C10),LEN([1]基本信息!C10)),[1]基本信息!C10,"")</f>
+        <f>IF(AND(LEN(基本信息!C10),LEN(基本信息!C10)),基本信息!C10,"")</f>
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -14388,7 +14354,7 @@
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
-        <f>IF(LEN(A5),IF(A5+1&lt;=[1]基本信息!C11,A5+1,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C11,A5+1,""),"")</f>
         <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -14400,7 +14366,7 @@
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
-        <f>IF(LEN(A5),IF(A5+2&lt;=[1]基本信息!C11,A5+2,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C11,A5+2,""),"")</f>
         <v>43081</v>
       </c>
       <c r="B7" s="18"/>
@@ -14408,7 +14374,7 @@
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
-        <f>IF(LEN(A5),IF(A5+3&lt;=[1]基本信息!C11,A5+3,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C11,A5+3,""),"")</f>
         <v>43082</v>
       </c>
       <c r="B8" s="18"/>
@@ -14416,7 +14382,7 @@
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
-        <f>IF(LEN(A5),IF(A5+4&lt;=[1]基本信息!C11,A5+4,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C11,A5+4,""),"")</f>
         <v>43083</v>
       </c>
       <c r="B9" s="18"/>
@@ -14424,7 +14390,7 @@
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
-        <f>IF(LEN(A5),IF(A5+5&lt;=[1]基本信息!C11,A5+5,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C11,A5+5,""),"")</f>
         <v>43084</v>
       </c>
       <c r="B10" s="18"/>
@@ -14432,7 +14398,7 @@
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
-        <f>IF(LEN(A5),IF(A5+6&lt;=[1]基本信息!C11,A5+6,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C11,A5+6,""),"")</f>
         <v>43085</v>
       </c>
       <c r="B11" s="18"/>
@@ -14440,7 +14406,7 @@
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
-        <f>IF(LEN(A5),IF(A5+7&lt;=[1]基本信息!C11,A5+7,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C11,A5+7,""),"")</f>
         <v>43086</v>
       </c>
       <c r="B12" s="18"/>
@@ -14448,7 +14414,7 @@
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
-        <f>IF(LEN(A5),IF(A5+8&lt;=[1]基本信息!C11,A5+8,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C11,A5+8,""),"")</f>
         <v>43087</v>
       </c>
       <c r="B13" s="18"/>
@@ -14456,7 +14422,7 @@
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
-        <f>IF(LEN(A5),IF(A5+9&lt;=[1]基本信息!C11,A5+9,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C11,A5+9,""),"")</f>
         <v>43088</v>
       </c>
       <c r="B14" s="18"/>
@@ -14464,7 +14430,7 @@
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
-        <f>IF(LEN(A5),IF(A5+10&lt;=[1]基本信息!C11,A5+10,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C11,A5+10,""),"")</f>
         <v>43089</v>
       </c>
       <c r="B15" s="18"/>
@@ -14472,7 +14438,7 @@
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
-        <f>IF(LEN(A5),IF(A5+11&lt;=[1]基本信息!C11,A5+11,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C11,A5+11,""),"")</f>
         <v>43090</v>
       </c>
       <c r="B16" s="18"/>
@@ -14480,7 +14446,7 @@
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
-        <f>IF(LEN(A5),IF(A5+12&lt;=[1]基本信息!C11,A5+12,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C11,A5+12,""),"")</f>
         <v>43091</v>
       </c>
       <c r="B17" s="18"/>
@@ -14488,7 +14454,7 @@
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
-        <f>IF(LEN(A5),IF(A5+13&lt;=[1]基本信息!C11,A5+13,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C11,A5+13,""),"")</f>
         <v>43092</v>
       </c>
       <c r="B18" s="18"/>
@@ -14496,7 +14462,7 @@
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
-        <f>IF(LEN(A5),IF(A5+14&lt;=[1]基本信息!C11,A5+14,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C11,A5+14,""),"")</f>
         <v>43093</v>
       </c>
       <c r="B19" s="18"/>
@@ -14504,7 +14470,7 @@
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
-        <f>IF(LEN(A5),IF(A5+15&lt;=[1]基本信息!C11,A5+15,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C11,A5+15,""),"")</f>
         <v>43094</v>
       </c>
       <c r="B20" s="18"/>
@@ -14512,7 +14478,7 @@
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
       <c r="A21" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+16&lt;=[1]基本信息!C11,A5+16,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C11,A5+16,""),"")</f>
         <v/>
       </c>
       <c r="B21" s="18"/>
@@ -14520,7 +14486,7 @@
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
       <c r="A22" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+17&lt;=[1]基本信息!C11,A5+17,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C11,A5+17,""),"")</f>
         <v/>
       </c>
       <c r="B22" s="18"/>
@@ -14528,7 +14494,7 @@
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
       <c r="A23" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+18&lt;=[1]基本信息!C11,A5+18,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C11,A5+18,""),"")</f>
         <v/>
       </c>
       <c r="B23" s="18"/>
@@ -14536,7 +14502,7 @@
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
       <c r="A24" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+19&lt;=[1]基本信息!C11,A5+19,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C11,A5+19,""),"")</f>
         <v/>
       </c>
       <c r="B24" s="18"/>
@@ -14544,7 +14510,7 @@
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
       <c r="A25" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+20&lt;=[1]基本信息!C11,A5+20,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C11,A5+20,""),"")</f>
         <v/>
       </c>
       <c r="B25" s="18"/>
@@ -14552,7 +14518,7 @@
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
       <c r="A26" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+21&lt;=[1]基本信息!C11,A5+21,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C11,A5+21,""),"")</f>
         <v/>
       </c>
       <c r="B26" s="18"/>
@@ -14560,7 +14526,7 @@
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
       <c r="A27" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+22&lt;=[1]基本信息!C11,A5+22,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C11,A5+22,""),"")</f>
         <v/>
       </c>
       <c r="B27" s="18"/>
@@ -14568,7 +14534,7 @@
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
       <c r="A28" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+23&lt;=[1]基本信息!C11,A5+23,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+23&lt;=基本信息!C11,A5+23,""),"")</f>
         <v/>
       </c>
       <c r="B28" s="18"/>
@@ -14576,7 +14542,7 @@
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
       <c r="A29" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+24&lt;=[1]基本信息!C11,A5+24,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C11,A5+24,""),"")</f>
         <v/>
       </c>
       <c r="B29" s="18"/>
@@ -14584,7 +14550,7 @@
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
       <c r="A30" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+25&lt;=[1]基本信息!C11,A5+25,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C11,A5+25,""),"")</f>
         <v/>
       </c>
       <c r="B30" s="18"/>
@@ -14592,7 +14558,7 @@
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
       <c r="A31" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+26&lt;=[1]基本信息!C11,A5+26,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C11,A5+26,""),"")</f>
         <v/>
       </c>
       <c r="B31" s="18"/>
@@ -14600,7 +14566,7 @@
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
       <c r="A32" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+27&lt;=[1]基本信息!C11,A5+27,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C11,A5+27,""),"")</f>
         <v/>
       </c>
       <c r="B32" s="18"/>
@@ -14608,7 +14574,7 @@
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
       <c r="A33" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+28&lt;=[1]基本信息!C11,A5+28,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C11,A5+28,""),"")</f>
         <v/>
       </c>
       <c r="B33" s="18"/>
@@ -14616,7 +14582,7 @@
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
       <c r="A34" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+29&lt;=[1]基本信息!C11,A5+29,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C11,A5+29,""),"")</f>
         <v/>
       </c>
       <c r="B34" s="18"/>
@@ -14624,7 +14590,7 @@
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
       <c r="A35" s="20" t="str">
-        <f>IF(LEN(A5),IF(A5+30&lt;=[1]基本信息!C11,A5+30,""),"")</f>
+        <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C11,A5+30,""),"")</f>
         <v/>
       </c>
       <c r="B35" s="18"/>
@@ -19481,6 +19447,7 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -19491,9 +19458,10 @@
   </mergeCells>
   <phoneticPr fontId="21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
